--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2545,7 +2545,7 @@
         <v>203.83</v>
       </c>
       <c r="G19">
-        <v>7.329411764705882</v>
+        <v>7.33</v>
       </c>
       <c r="H19">
         <v>394.57</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>44.02055555555555</v>
+        <v>44.02</v>
       </c>
       <c r="Z19">
         <v>33.48</v>
       </c>
       <c r="AA19">
-        <v>39.31277777777778</v>
+        <v>39.31</v>
       </c>
       <c r="AB19">
-        <v>49.85333333333333</v>
+        <v>49.85</v>
       </c>
       <c r="AC19">
         <v>1607.51</v>
@@ -2623,7 +2623,7 @@
         <v>4.27</v>
       </c>
       <c r="AG19">
-        <v>39.30611111111111</v>
+        <v>39.31</v>
       </c>
       <c r="AH19">
         <v>8.27</v>
@@ -2655,7 +2655,7 @@
         <v>456.41</v>
       </c>
       <c r="G20">
-        <v>7.329411764705882</v>
+        <v>7.33</v>
       </c>
       <c r="H20">
         <v>881.09</v>
@@ -2709,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>44.02055555555555</v>
+        <v>44.02</v>
       </c>
       <c r="Z20">
         <v>33.48</v>
       </c>
       <c r="AA20">
-        <v>39.31277777777778</v>
+        <v>39.31</v>
       </c>
       <c r="AB20">
-        <v>49.85333333333333</v>
+        <v>49.85</v>
       </c>
       <c r="AC20">
         <v>1134.62</v>
@@ -2733,7 +2733,7 @@
         <v>1.4</v>
       </c>
       <c r="AG20">
-        <v>39.30611111111111</v>
+        <v>39.31</v>
       </c>
       <c r="AH20">
         <v>2.71</v>
@@ -2765,7 +2765,7 @@
         <v>351.15</v>
       </c>
       <c r="G21">
-        <v>7.329411764705882</v>
+        <v>7.33</v>
       </c>
       <c r="H21">
         <v>621.6900000000001</v>
